--- a/Windows Tests/Windows Tests/bin/Debug/Вопросы/Общее/Test.xlsx
+++ b/Windows Tests/Windows Tests/bin/Debug/Вопросы/Общее/Test.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
